--- a/youtube/기초편/excel/sample1.xlsx
+++ b/youtube/기초편/excel/sample1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV_Source\RPA\11_UiPath_기초편_Excel Read Write\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-uipath\youtube\기초편\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +355,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="I13" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/youtube/기초편/excel/sample1.xlsx
+++ b/youtube/기초편/excel/sample1.xlsx
@@ -24,7 +24,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+  <si>
+    <t>시간표</t>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>1교시</t>
+  </si>
+  <si>
+    <t>국어</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>체육</t>
+  </si>
+  <si>
+    <t>과학</t>
+  </si>
+  <si>
+    <t>2교시</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>미술</t>
+  </si>
+  <si>
+    <t>수학</t>
+  </si>
+  <si>
+    <t>3교시</t>
+  </si>
+  <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>시간표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,14 +472,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="J14" sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
